--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EFF5D-8969-430F-92C0-CA553DA18D30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1B615-2E26-4009-A8CC-EAA89D79094A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12540" yWindow="780" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="19">
   <si>
     <t>WCI Composite</t>
   </si>
@@ -499,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M754"/>
+  <dimension ref="A1:M755"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G729" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O763" sqref="O763"/>
+      <selection pane="bottomRight" activeCell="U749" sqref="U749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31431,6 +31431,47 @@
       </c>
       <c r="M754" s="11">
         <v>1634</v>
+      </c>
+    </row>
+    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A755" s="8">
+        <v>46043</v>
+      </c>
+      <c r="B755" s="8">
+        <v>46044</v>
+      </c>
+      <c r="C755" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D755" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E755" s="10">
+        <v>2211.85</v>
+      </c>
+      <c r="F755" s="11">
+        <v>2510</v>
+      </c>
+      <c r="G755" s="11">
+        <v>3520</v>
+      </c>
+      <c r="H755" s="11">
+        <v>2546</v>
+      </c>
+      <c r="I755" s="11">
+        <v>3191</v>
+      </c>
+      <c r="J755" s="11">
+        <v>502</v>
+      </c>
+      <c r="K755" s="11">
+        <v>705</v>
+      </c>
+      <c r="L755" s="11">
+        <v>983</v>
+      </c>
+      <c r="M755" s="11">
+        <v>1570</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/freight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1B615-2E26-4009-A8CC-EAA89D79094A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889D766D-C9CA-7A46-82D2-616987F1FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="780" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17980" yWindow="2240" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WCI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="19">
   <si>
     <t>WCI Composite</t>
   </si>
@@ -99,28 +99,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -129,7 +129,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +143,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -193,25 +193,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -219,9 +219,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,27 +499,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M755"/>
+  <dimension ref="A1:M756"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G729" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U749" sqref="U749"/>
+      <selection pane="bottomRight" activeCell="K753" sqref="K753"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="13" width="10.5" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="7.625" style="11"/>
+    <col min="14" max="16384" width="7.6640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="8">
         <v>40716</v>
       </c>
@@ -601,7 +601,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="8">
         <v>40723</v>
       </c>
@@ -642,7 +642,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="8">
         <v>40730</v>
       </c>
@@ -683,7 +683,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="8">
         <v>40737</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="8">
         <v>40744</v>
       </c>
@@ -765,7 +765,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>40751</v>
       </c>
@@ -806,7 +806,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>40758</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <v>40765</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="8">
         <v>40772</v>
       </c>
@@ -929,7 +929,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="8">
         <v>40779</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="8">
         <v>40786</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="8">
         <v>40793</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="8">
         <v>40800</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="8">
         <v>40807</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="8">
         <v>40814</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="8">
         <v>40821</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="8">
         <v>40828</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="8">
         <v>40835</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="8">
         <v>40842</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="8">
         <v>40849</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="8">
         <v>40856</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="8">
         <v>40863</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="8">
         <v>40870</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="8">
         <v>40877</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="8">
         <v>40884</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="8">
         <v>40891</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="8">
         <v>40898</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="8">
         <v>40905</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="8">
         <v>40912</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="8">
         <v>40919</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="8">
         <v>40926</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="8">
         <v>40933</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="8">
         <v>40940</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="8">
         <v>40947</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="8">
         <v>40954</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="8">
         <v>40961</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="8">
         <v>40968</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="8">
         <v>40975</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="8">
         <v>40982</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="8">
         <v>40989</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="8">
         <v>40996</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="8">
         <v>41003</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="8">
         <v>41010</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="8">
         <v>41017</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="8">
         <v>41024</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="8">
         <v>41031</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="8">
         <v>41038</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="8">
         <v>41045</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="8">
         <v>41052</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" s="8">
         <v>41059</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="8">
         <v>41066</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="8">
         <v>41073</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="8">
         <v>41080</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" s="8">
         <v>41087</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="8">
         <v>41094</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="8">
         <v>41101</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" s="8">
         <v>41108</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="8">
         <v>41115</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" s="8">
         <v>41122</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" s="8">
         <v>41129</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="8">
         <v>41136</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63" s="8">
         <v>41143</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" s="8">
         <v>41150</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65" s="8">
         <v>41157</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66" s="8">
         <v>41164</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67" s="8">
         <v>41171</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68" s="8">
         <v>41178</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69" s="8">
         <v>41185</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70" s="8">
         <v>41192</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71" s="8">
         <v>41199</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72" s="8">
         <v>41206</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73" s="8">
         <v>41213</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74" s="8">
         <v>41220</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75" s="8">
         <v>41227</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76" s="8">
         <v>41234</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77" s="8">
         <v>41241</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78" s="8">
         <v>41248</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79" s="8">
         <v>41255</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="A80" s="8">
         <v>41262</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81" s="8">
         <v>41269</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82" s="8">
         <v>41276</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83" s="8">
         <v>41283</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84" s="8">
         <v>41290</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85" s="8">
         <v>41297</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86" s="8">
         <v>41304</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87" s="8">
         <v>41311</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88" s="8">
         <v>41318</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89" s="8">
         <v>41325</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90" s="8">
         <v>41332</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91" s="8">
         <v>41339</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92" s="8">
         <v>41346</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93" s="8">
         <v>41353</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94" s="8">
         <v>41360</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95" s="8">
         <v>41367</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96" s="8">
         <v>41374</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97" s="8">
         <v>41381</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98" s="8">
         <v>41388</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99" s="8">
         <v>41395</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100" s="8">
         <v>41402</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101" s="8">
         <v>41409</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102" s="8">
         <v>41416</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103" s="8">
         <v>41423</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104" s="8">
         <v>41430</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105" s="8">
         <v>41437</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106" s="8">
         <v>41444</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107" s="8">
         <v>41451</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108" s="8">
         <v>41458</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109" s="8">
         <v>41465</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110" s="8">
         <v>41472</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111" s="8">
         <v>41479</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112" s="8">
         <v>41486</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113" s="8">
         <v>41493</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" s="8">
         <v>41500</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115" s="8">
         <v>41507</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116" s="8">
         <v>41514</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117" s="8">
         <v>41521</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" s="8">
         <v>41528</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119" s="8">
         <v>41535</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120" s="8">
         <v>41542</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" s="8">
         <v>41549</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122" s="8">
         <v>41556</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123" s="8">
         <v>41563</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124" s="8">
         <v>41570</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125" s="8">
         <v>41577</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" s="8">
         <v>41584</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" s="8">
         <v>41591</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="8">
         <v>41598</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="8">
         <v>41605</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="8">
         <v>41612</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="8">
         <v>41619</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="8">
         <v>41626</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" s="8">
         <v>41640</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="8">
         <v>41647</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" s="8">
         <v>41654</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="8">
         <v>41661</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="8">
         <v>41668</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" s="8">
         <v>41675</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" s="8">
         <v>41682</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" s="8">
         <v>41689</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="8">
         <v>41696</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="8">
         <v>41703</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" s="8">
         <v>41710</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" s="8">
         <v>41717</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" s="8">
         <v>41724</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" s="8">
         <v>41731</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" s="8">
         <v>41738</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" s="8">
         <v>41745</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149" s="8">
         <v>41752</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" s="8">
         <v>41759</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151" s="8">
         <v>41766</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152" s="8">
         <v>41773</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153" s="8">
         <v>41780</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154" s="8">
         <v>41787</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155" s="8">
         <v>41794</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156" s="8">
         <v>41801</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157" s="8">
         <v>41808</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13">
       <c r="A158" s="8">
         <v>41815</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159" s="8">
         <v>41822</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160" s="8">
         <v>41829</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161" s="8">
         <v>41836</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162" s="8">
         <v>41843</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163" s="8">
         <v>41850</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164" s="8">
         <v>41857</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165" s="8">
         <v>41864</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166" s="8">
         <v>41871</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167" s="8">
         <v>41878</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13">
       <c r="A168" s="8">
         <v>41885</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169" s="8">
         <v>41892</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170" s="8">
         <v>41899</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171" s="8">
         <v>41906</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172" s="8">
         <v>41913</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173" s="8">
         <v>41920</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174" s="8">
         <v>41927</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175" s="8">
         <v>41934</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13">
       <c r="A176" s="8">
         <v>41941</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177" s="8">
         <v>41948</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13">
       <c r="A178" s="8">
         <v>41955</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179" s="8">
         <v>41962</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180" s="8">
         <v>41969</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181" s="8">
         <v>41976</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13">
       <c r="A182" s="8">
         <v>41983</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183" s="8">
         <v>41990</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13">
       <c r="A184" s="8">
         <v>42011</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185" s="8">
         <v>42018</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13">
       <c r="A186" s="8">
         <v>42025</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13">
       <c r="A187" s="8">
         <v>42032</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13">
       <c r="A188" s="8">
         <v>42039</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13">
       <c r="A189" s="8">
         <v>42046</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13">
       <c r="A190" s="8">
         <v>42053</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13">
       <c r="A191" s="8">
         <v>42060</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192" s="8">
         <v>42067</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13">
       <c r="A193" s="8">
         <v>42074</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13">
       <c r="A194" s="8">
         <v>42081</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13">
       <c r="A195" s="8">
         <v>42088</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13">
       <c r="A196" s="8">
         <v>42095</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13">
       <c r="A197" s="8">
         <v>42102</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198" s="8">
         <v>42109</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13">
       <c r="A199" s="8">
         <v>42116</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13">
       <c r="A200" s="8">
         <v>42123</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13">
       <c r="A201" s="8">
         <v>42130</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13">
       <c r="A202" s="8">
         <v>42137</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13">
       <c r="A203" s="8">
         <v>42144</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13">
       <c r="A204" s="8">
         <v>42151</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13">
       <c r="A205" s="8">
         <v>42158</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13">
       <c r="A206" s="8">
         <v>42165</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13">
       <c r="A207" s="8">
         <v>42172</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13">
       <c r="A208" s="8">
         <v>42179</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13">
       <c r="A209" s="8">
         <v>42186</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210" s="8">
         <v>42193</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13">
       <c r="A211" s="8">
         <v>42200</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13">
       <c r="A212" s="8">
         <v>42207</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13">
       <c r="A213" s="8">
         <v>42214</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214" s="8">
         <v>42221</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13">
       <c r="A215" s="8">
         <v>42228</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13">
       <c r="A216" s="8">
         <v>42235</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13">
       <c r="A217" s="8">
         <v>42242</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13">
       <c r="A218" s="8">
         <v>42249</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13">
       <c r="A219" s="8">
         <v>42256</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13">
       <c r="A220" s="8">
         <v>42263</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13">
       <c r="A221" s="8">
         <v>42270</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13">
       <c r="A222" s="8">
         <v>42277</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13">
       <c r="A223" s="8">
         <v>42284</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13">
       <c r="A224" s="8">
         <v>42291</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13">
       <c r="A225" s="8">
         <v>42298</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13">
       <c r="A226" s="8">
         <v>42305</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13">
       <c r="A227" s="8">
         <v>42312</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13">
       <c r="A228" s="8">
         <v>42319</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13">
       <c r="A229" s="8">
         <v>42326</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13">
       <c r="A230" s="8">
         <v>42333</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13">
       <c r="A231" s="8">
         <v>42340</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13">
       <c r="A232" s="8">
         <v>42347</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13">
       <c r="A233" s="8">
         <v>42354</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13">
       <c r="A234" s="8">
         <v>42361</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13">
       <c r="A235" s="8">
         <v>42368</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13">
       <c r="A236" s="8">
         <v>42375</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13">
       <c r="A237" s="8">
         <v>42382</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13">
       <c r="A238" s="8">
         <v>42389</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13">
       <c r="A239" s="8">
         <v>42396</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13">
       <c r="A240" s="8">
         <v>42403</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13">
       <c r="A241" s="8">
         <v>42410</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13">
       <c r="A242" s="8">
         <v>42417</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13">
       <c r="A243" s="8">
         <v>42424</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13">
       <c r="A244" s="8">
         <v>42431</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13">
       <c r="A245" s="8">
         <v>42438</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13">
       <c r="A246" s="8">
         <v>42445</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13">
       <c r="A247" s="8">
         <v>42452</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13">
       <c r="A248" s="8">
         <v>42459</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13">
       <c r="A249" s="8">
         <v>42466</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13">
       <c r="A250" s="8">
         <v>42473</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13">
       <c r="A251" s="8">
         <v>42480</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13">
       <c r="A252" s="8">
         <v>42487</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13">
       <c r="A253" s="8">
         <v>42494</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13">
       <c r="A254" s="8">
         <v>42501</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13">
       <c r="A255" s="8">
         <v>42508</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13">
       <c r="A256" s="8">
         <v>42515</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13">
       <c r="A257" s="8">
         <v>42522</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13">
       <c r="A258" s="8">
         <v>42529</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13">
       <c r="A259" s="8">
         <v>42536</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13">
       <c r="A260" s="8">
         <v>42543</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13">
       <c r="A261" s="8">
         <v>42550</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13">
       <c r="A262" s="8">
         <v>42557</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13">
       <c r="A263" s="8">
         <v>42564</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13">
       <c r="A264" s="8">
         <v>42571</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13">
       <c r="A265" s="8">
         <v>42578</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13">
       <c r="A266" s="8">
         <v>42585</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13">
       <c r="A267" s="8">
         <v>42592</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13">
       <c r="A268" s="8">
         <v>42599</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13">
       <c r="A269" s="8">
         <v>42606</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13">
       <c r="A270" s="8">
         <v>42613</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13">
       <c r="A271" s="8">
         <v>42620</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13">
       <c r="A272" s="8">
         <v>42627</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13">
       <c r="A273" s="8">
         <v>42634</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13">
       <c r="A274" s="8">
         <v>42641</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13">
       <c r="A275" s="8">
         <v>42648</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13">
       <c r="A276" s="8">
         <v>42655</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13">
       <c r="A277" s="8">
         <v>42662</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13">
       <c r="A278" s="8">
         <v>42669</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13">
       <c r="A279" s="8">
         <v>42676</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13">
       <c r="A280" s="8">
         <v>42683</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13">
       <c r="A281" s="8">
         <v>42690</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13">
       <c r="A282" s="8">
         <v>42697</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13">
       <c r="A283" s="8">
         <v>42704</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13">
       <c r="A284" s="8">
         <v>42711</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13">
       <c r="A285" s="8">
         <v>42718</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13">
       <c r="A286" s="8">
         <v>42725</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13">
       <c r="A287" s="8">
         <v>42732</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13">
       <c r="A288" s="8">
         <v>42739</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13">
       <c r="A289" s="8">
         <v>42746</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13">
       <c r="A290" s="8">
         <v>42753</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13">
       <c r="A291" s="8">
         <v>42760</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13">
       <c r="A292" s="8">
         <v>42767</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13">
       <c r="A293" s="8">
         <v>42774</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13">
       <c r="A294" s="8">
         <v>42781</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13">
       <c r="A295" s="8">
         <v>42788</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13">
       <c r="A296" s="8">
         <v>42795</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13">
       <c r="A297" s="8">
         <v>42802</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13">
       <c r="A298" s="8">
         <v>42809</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13">
       <c r="A299" s="8">
         <v>42816</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13">
       <c r="A300" s="8">
         <v>42823</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13">
       <c r="A301" s="8">
         <v>42830</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13">
       <c r="A302" s="8">
         <v>42837</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13">
       <c r="A303" s="8">
         <v>42844</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13">
       <c r="A304" s="8">
         <v>42851</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13">
       <c r="A305" s="8">
         <v>42858</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13">
       <c r="A306" s="8">
         <v>42865</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13">
       <c r="A307" s="8">
         <v>42872</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13">
       <c r="A308" s="8">
         <v>42879</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13">
       <c r="A309" s="8">
         <v>42886</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13">
       <c r="A310" s="8">
         <v>42893</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13">
       <c r="A311" s="8">
         <v>42900</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13">
       <c r="A312" s="8">
         <v>42907</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13">
       <c r="A313" s="8">
         <v>42914</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13">
       <c r="A314" s="8">
         <v>42921</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13">
       <c r="A315" s="8">
         <v>42928</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13">
       <c r="A316" s="8">
         <v>42935</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13">
       <c r="A317" s="8">
         <v>42942</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13">
       <c r="A318" s="8">
         <v>42949</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13">
       <c r="A319" s="8">
         <v>42956</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13">
       <c r="A320" s="8">
         <v>42963</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13">
       <c r="A321" s="8">
         <v>42970</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13">
       <c r="A322" s="8">
         <v>42977</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13">
       <c r="A323" s="8">
         <v>42984</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13">
       <c r="A324" s="8">
         <v>42991</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13">
       <c r="A325" s="8">
         <v>42998</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13">
       <c r="A326" s="8">
         <v>43005</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13">
       <c r="A327" s="8">
         <v>43012</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13">
       <c r="A328" s="8">
         <v>43019</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13">
       <c r="A329" s="8">
         <v>43026</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13">
       <c r="A330" s="8">
         <v>43033</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13">
       <c r="A331" s="8">
         <v>43040</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13">
       <c r="A332" s="8">
         <v>43047</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13">
       <c r="A333" s="8">
         <v>43054</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13">
       <c r="A334" s="8">
         <v>43061</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13">
       <c r="A335" s="8">
         <v>43068</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13">
       <c r="A336" s="8">
         <v>43075</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13">
       <c r="A337" s="8">
         <v>43082</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13">
       <c r="A338" s="8">
         <v>43089</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13">
       <c r="A339" s="8">
         <v>43096</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13">
       <c r="A340" s="8">
         <v>43103</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13">
       <c r="A341" s="8">
         <v>43110</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13">
       <c r="A342" s="8">
         <v>43117</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13">
       <c r="A343" s="8">
         <v>43124</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13">
       <c r="A344" s="8">
         <v>43131</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13">
       <c r="A345" s="8">
         <v>43138</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13">
       <c r="A346" s="8">
         <v>43145</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13">
       <c r="A347" s="8">
         <v>43152</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13">
       <c r="A348" s="8">
         <v>43159</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13">
       <c r="A349" s="8">
         <v>43166</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13">
       <c r="A350" s="8">
         <v>43173</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13">
       <c r="A351" s="8">
         <v>43180</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13">
       <c r="A352" s="8">
         <v>43187</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13">
       <c r="A353" s="8">
         <v>43194</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13">
       <c r="A354" s="8">
         <v>43201</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13">
       <c r="A355" s="8">
         <v>43208</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13">
       <c r="A356" s="8">
         <v>43215</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13">
       <c r="A357" s="8">
         <v>43222</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13">
       <c r="A358" s="8">
         <v>43229</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13">
       <c r="A359" s="8">
         <v>43236</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13">
       <c r="A360" s="8">
         <v>43243</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13">
       <c r="A361" s="8">
         <v>43250</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13">
       <c r="A362" s="8">
         <v>43257</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13">
       <c r="A363" s="8">
         <v>43264</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13">
       <c r="A364" s="8">
         <v>43271</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13">
       <c r="A365" s="8">
         <v>43278</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13">
       <c r="A366" s="8">
         <v>43285</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13">
       <c r="A367" s="8">
         <v>43292</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13">
       <c r="A368" s="8">
         <v>43299</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13">
       <c r="A369" s="8">
         <v>43306</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13">
       <c r="A370" s="8">
         <v>43313</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13">
       <c r="A371" s="8">
         <v>43320</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13">
       <c r="A372" s="8">
         <v>43327</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13">
       <c r="A373" s="8">
         <v>43334</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13">
       <c r="A374" s="8">
         <v>43341</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13">
       <c r="A375" s="8">
         <v>43348</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13">
       <c r="A376" s="8">
         <v>43355</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13">
       <c r="A377" s="8">
         <v>43362</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13">
       <c r="A378" s="8">
         <v>43369</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13">
       <c r="A379" s="8">
         <v>43376</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13">
       <c r="A380" s="8">
         <v>43383</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13">
       <c r="A381" s="8">
         <v>43390</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13">
       <c r="A382" s="8">
         <v>43397</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13">
       <c r="A383" s="8">
         <v>43404</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13">
       <c r="A384" s="8">
         <v>43411</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13">
       <c r="A385" s="8">
         <v>43418</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13">
       <c r="A386" s="8">
         <v>43425</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13">
       <c r="A387" s="8">
         <v>43432</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13">
       <c r="A388" s="8">
         <v>43439</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13">
       <c r="A389" s="8">
         <v>43446</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13">
       <c r="A390" s="8">
         <v>43453</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13">
       <c r="A391" s="8">
         <v>43460</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13">
       <c r="A392" s="8">
         <v>43467</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13">
       <c r="A393" s="8">
         <v>43474</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13">
       <c r="A394" s="8">
         <v>43481</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13">
       <c r="A395" s="8">
         <v>43488</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13">
       <c r="A396" s="8">
         <v>43495</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13">
       <c r="A397" s="8">
         <v>43502</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13">
       <c r="A398" s="8">
         <v>43509</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13">
       <c r="A399" s="8">
         <v>43516</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13">
       <c r="A400" s="8">
         <v>43523</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13">
       <c r="A401" s="8">
         <v>43530</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13">
       <c r="A402" s="8">
         <v>43537</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13">
       <c r="A403" s="8">
         <v>43544</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13">
       <c r="A404" s="8">
         <v>43551</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13">
       <c r="A405" s="8">
         <v>43558</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13">
       <c r="A406" s="8">
         <v>43565</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13">
       <c r="A407" s="8">
         <v>43572</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13">
       <c r="A408" s="8">
         <v>43579</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13">
       <c r="A409" s="8">
         <v>43586</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13">
       <c r="A410" s="8">
         <v>43593</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13">
       <c r="A411" s="8">
         <v>43600</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13">
       <c r="A412" s="8">
         <v>43607</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13">
       <c r="A413" s="8">
         <v>43614</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13">
       <c r="A414" s="8">
         <v>43621</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13">
       <c r="A415" s="8">
         <v>43628</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13">
       <c r="A416" s="8">
         <v>43635</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13">
       <c r="A417" s="8">
         <v>43642</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13">
       <c r="A418" s="8">
         <v>43649</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13">
       <c r="A419" s="8">
         <v>43656</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13">
       <c r="A420" s="8">
         <v>43663</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13">
       <c r="A421" s="8">
         <v>43670</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13">
       <c r="A422" s="8">
         <v>43677</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13">
       <c r="A423" s="8">
         <v>43684</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13">
       <c r="A424" s="8">
         <v>43691</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13">
       <c r="A425" s="8">
         <v>43698</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13">
       <c r="A426" s="8">
         <v>43705</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13">
       <c r="A427" s="8">
         <v>43712</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13">
       <c r="A428" s="8">
         <v>43719</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13">
       <c r="A429" s="8">
         <v>43726</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13">
       <c r="A430" s="8">
         <v>43733</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13">
       <c r="A431" s="8">
         <v>43740</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13">
       <c r="A432" s="8">
         <v>43747</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13">
       <c r="A433" s="8">
         <v>43754</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13">
       <c r="A434" s="8">
         <v>43761</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13">
       <c r="A435" s="8">
         <v>43768</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13">
       <c r="A436" s="8">
         <v>43775</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13">
       <c r="A437" s="8">
         <v>43782</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13">
       <c r="A438" s="8">
         <v>43789</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13">
       <c r="A439" s="8">
         <v>43796</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13">
       <c r="A440" s="8">
         <v>43803</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13">
       <c r="A441" s="8">
         <v>43810</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13">
       <c r="A442" s="8">
         <v>43817</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13">
       <c r="A443" s="8">
         <v>43831</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13">
       <c r="A444" s="8">
         <v>43838</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13">
       <c r="A445" s="8">
         <v>43845</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13">
       <c r="A446" s="8">
         <v>43852</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13">
       <c r="A447" s="8">
         <v>43859</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13">
       <c r="A448" s="8">
         <v>43866</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13">
       <c r="A449" s="8">
         <v>43873</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13">
       <c r="A450" s="8">
         <v>43880</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13">
       <c r="A451" s="8">
         <v>43887</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13">
       <c r="A452" s="8">
         <v>43894</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13">
       <c r="A453" s="8">
         <v>43901</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13">
       <c r="A454" s="8">
         <v>43908</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13">
       <c r="A455" s="8">
         <v>43915</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13">
       <c r="A456" s="8">
         <v>43922</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13">
       <c r="A457" s="8">
         <v>43929</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13">
       <c r="A458" s="8">
         <v>43936</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13">
       <c r="A459" s="8">
         <v>43943</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13">
       <c r="A460" s="8">
         <v>43950</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13">
       <c r="A461" s="8">
         <v>43957</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13">
       <c r="A462" s="8">
         <v>43964</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13">
       <c r="A463" s="8">
         <v>43971</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13">
       <c r="A464" s="8">
         <v>43978</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13">
       <c r="A465" s="8">
         <v>43985</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13">
       <c r="A466" s="8">
         <v>43992</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13">
       <c r="A467" s="8">
         <v>43999</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13">
       <c r="A468" s="8">
         <v>44006</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13">
       <c r="A469" s="8">
         <v>44013</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13">
       <c r="A470" s="8">
         <v>44020</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13">
       <c r="A471" s="8">
         <v>44027</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13">
       <c r="A472" s="8">
         <v>44034</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13">
       <c r="A473" s="8">
         <v>44041</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13">
       <c r="A474" s="8">
         <v>44048</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13">
       <c r="A475" s="8">
         <v>44055</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13">
       <c r="A476" s="8">
         <v>44062</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13">
       <c r="A477" s="8">
         <v>44069</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13">
       <c r="A478" s="8">
         <v>44076</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13">
       <c r="A479" s="8">
         <v>44083</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13">
       <c r="A480" s="8">
         <v>44090</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13">
       <c r="A481" s="8">
         <v>44097</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13">
       <c r="A482" s="8">
         <v>44104</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13">
       <c r="A483" s="8">
         <v>44111</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13">
       <c r="A484" s="8">
         <v>44118</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13">
       <c r="A485" s="8">
         <v>44125</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13">
       <c r="A486" s="8">
         <v>44132</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13">
       <c r="A487" s="8">
         <v>44139</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13">
       <c r="A488" s="8">
         <v>44146</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13">
       <c r="A489" s="8">
         <v>44153</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13">
       <c r="A490" s="8">
         <v>44160</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13">
       <c r="A491" s="8">
         <v>44167</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13">
       <c r="A492" s="8">
         <v>44174</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13">
       <c r="A493" s="8">
         <v>44181</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13">
       <c r="A494" s="8">
         <v>44188</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13">
       <c r="A495" s="8">
         <v>44195</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13">
       <c r="A496" s="8">
         <v>44202</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13">
       <c r="A497" s="8">
         <v>44209</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13">
       <c r="A498" s="8">
         <v>44216</v>
       </c>
@@ -20937,7 +20937,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13">
       <c r="A499" s="8">
         <v>44223</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13">
       <c r="A500" s="8">
         <v>44230</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13">
       <c r="A501" s="8">
         <v>44237</v>
       </c>
@@ -21060,7 +21060,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13">
       <c r="A502" s="8">
         <v>44244</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13">
       <c r="A503" s="8">
         <v>44251</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13">
       <c r="A504" s="8">
         <v>44258</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13">
       <c r="A505" s="8">
         <v>44265</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13">
       <c r="A506" s="8">
         <v>44272</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13">
       <c r="A507" s="8">
         <v>44279</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13">
       <c r="A508" s="8">
         <v>44286</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13">
       <c r="A509" s="8">
         <v>44293</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13">
       <c r="A510" s="8">
         <v>44300</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13">
       <c r="A511" s="8">
         <v>44307</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13">
       <c r="A512" s="8">
         <v>44314</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13">
       <c r="A513" s="8">
         <v>44321</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13">
       <c r="A514" s="8">
         <v>44328</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13">
       <c r="A515" s="8">
         <v>44335</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13">
       <c r="A516" s="8">
         <v>44342</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13">
       <c r="A517" s="8">
         <v>44349</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13">
       <c r="A518" s="8">
         <v>44356</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13">
       <c r="A519" s="8">
         <v>44363</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13">
       <c r="A520" s="8">
         <v>44370</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13">
       <c r="A521" s="8">
         <v>44377</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13">
       <c r="A522" s="8">
         <v>44384</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13">
       <c r="A523" s="8">
         <v>44391</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13">
       <c r="A524" s="8">
         <v>44398</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13">
       <c r="A525" s="8">
         <v>44405</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13">
       <c r="A526" s="8">
         <v>44412</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>6417</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13">
       <c r="A527" s="8">
         <v>44419</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13">
       <c r="A528" s="8">
         <v>44426</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13">
       <c r="A529" s="8">
         <v>44433</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>6461</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13">
       <c r="A530" s="8">
         <v>44440</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13">
       <c r="A531" s="8">
         <v>44447</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13">
       <c r="A532" s="8">
         <v>44454</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13">
       <c r="A533" s="8">
         <v>44461</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>6179</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13">
       <c r="A534" s="8">
         <v>44468</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13">
       <c r="A535" s="8">
         <v>44475</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>6209</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13">
       <c r="A536" s="8">
         <v>44482</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13">
       <c r="A537" s="8">
         <v>44489</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13">
       <c r="A538" s="8">
         <v>44496</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13">
       <c r="A539" s="8">
         <v>44503</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13">
       <c r="A540" s="8">
         <v>44510</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>6255</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13">
       <c r="A541" s="8">
         <v>44517</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>6272</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13">
       <c r="A542" s="8">
         <v>44524</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13">
       <c r="A543" s="8">
         <v>44531</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13">
       <c r="A544" s="8">
         <v>44538</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13">
       <c r="A545" s="8">
         <v>44545</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>6272</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13">
       <c r="A546" s="8">
         <v>44552</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13">
       <c r="A547" s="8">
         <v>44566</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13">
       <c r="A548" s="8">
         <v>44573</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13">
       <c r="A549" s="8">
         <v>44580</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>6292</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13">
       <c r="A550" s="8">
         <v>44587</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13">
       <c r="A551" s="8">
         <v>44594</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>6455</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13">
       <c r="A552" s="8">
         <v>44601</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13">
       <c r="A553" s="8">
         <v>44608</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13">
       <c r="A554" s="8">
         <v>44615</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13">
       <c r="A555" s="8">
         <v>44622</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13">
       <c r="A556" s="8">
         <v>44629</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>6494</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13">
       <c r="A557" s="8">
         <v>44636</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>6491</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13">
       <c r="A558" s="8">
         <v>44643</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>6793</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13">
       <c r="A559" s="8">
         <v>44650</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13">
       <c r="A560" s="8">
         <v>44657</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13">
       <c r="A561" s="8">
         <v>44664</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>6929</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13">
       <c r="A562" s="8">
         <v>44671</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>6934</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13">
       <c r="A563" s="8">
         <v>44678</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>6940</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13">
       <c r="A564" s="8">
         <v>44685</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>7212</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13">
       <c r="A565" s="8">
         <v>44692</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13">
       <c r="A566" s="8">
         <v>44699</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>7189</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13">
       <c r="A567" s="8">
         <v>44706</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13">
       <c r="A568" s="8">
         <v>44713</v>
       </c>
@@ -23807,7 +23807,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13">
       <c r="A569" s="8">
         <v>44720</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13">
       <c r="A570" s="8">
         <v>44727</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>6938</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13">
       <c r="A571" s="8">
         <v>44734</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13">
       <c r="A572" s="8">
         <v>44741</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>6783</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13">
       <c r="A573" s="8">
         <v>44748</v>
       </c>
@@ -24012,7 +24012,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13">
       <c r="A574" s="8">
         <v>44755</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>6929</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13">
       <c r="A575" s="8">
         <v>44762</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>6926</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13">
       <c r="A576" s="8">
         <v>44769</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13">
       <c r="A577" s="8">
         <v>44776</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>6939</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13">
       <c r="A578" s="8">
         <v>44783</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>6945</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13">
       <c r="A579" s="8">
         <v>44790</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13">
       <c r="A580" s="8">
         <v>44797</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13">
       <c r="A581" s="8">
         <v>44804</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13">
       <c r="A582" s="8">
         <v>44811</v>
       </c>
@@ -24381,7 +24381,7 @@
         <v>6688</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13">
       <c r="A583" s="8">
         <v>44818</v>
       </c>
@@ -24422,7 +24422,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13">
       <c r="A584" s="8">
         <v>44825</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13">
       <c r="A585" s="8">
         <v>44832</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>7038</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13">
       <c r="A586" s="8">
         <v>44839</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>7252</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13">
       <c r="A587" s="8">
         <v>44846</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>7295</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13">
       <c r="A588" s="8">
         <v>44853</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>7264</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13">
       <c r="A589" s="8">
         <v>44860</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>7284</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13">
       <c r="A590" s="8">
         <v>44867</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13">
       <c r="A591" s="8">
         <v>44874</v>
       </c>
@@ -24750,7 +24750,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13">
       <c r="A592" s="8">
         <v>44881</v>
       </c>
@@ -24791,7 +24791,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13">
       <c r="A593" s="8">
         <v>44888</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>7224</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13">
       <c r="A594" s="8">
         <v>44895</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13">
       <c r="A595" s="8">
         <v>44902</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13">
       <c r="A596" s="8">
         <v>44909</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13">
       <c r="A597" s="8">
         <v>44916</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>6989</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13">
       <c r="A598" s="8">
         <v>44930</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13">
       <c r="A599" s="8">
         <v>44937</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13">
       <c r="A600" s="8">
         <v>44944</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>6296</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13">
       <c r="A601" s="8">
         <v>44951</v>
       </c>
@@ -25160,7 +25160,7 @@
         <v>6322</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13">
       <c r="A602" s="8">
         <v>44958</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13">
       <c r="A603" s="8">
         <v>44965</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13">
       <c r="A604" s="8">
         <v>44972</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13">
       <c r="A605" s="8">
         <v>44979</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>5640</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13">
       <c r="A606" s="8">
         <v>44986</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>5573</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13">
       <c r="A607" s="8">
         <v>44993</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>5377</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13">
       <c r="A608" s="8">
         <v>45000</v>
       </c>
@@ -25447,7 +25447,7 @@
         <v>5326</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13">
       <c r="A609" s="8">
         <v>45007</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>5061</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13">
       <c r="A610" s="8">
         <v>45014</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13">
       <c r="A611" s="8">
         <v>45021</v>
       </c>
@@ -25570,7 +25570,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13">
       <c r="A612" s="8">
         <v>45028</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13">
       <c r="A613" s="8">
         <v>45035</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13">
       <c r="A614" s="8">
         <v>45042</v>
       </c>
@@ -25693,7 +25693,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13">
       <c r="A615" s="8">
         <v>45049</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13">
       <c r="A616" s="8">
         <v>45056</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13">
       <c r="A617" s="8">
         <v>45063</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13">
       <c r="A618" s="8">
         <v>45070</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13">
       <c r="A619" s="8">
         <v>45077</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13">
       <c r="A620" s="8">
         <v>45084</v>
       </c>
@@ -25939,7 +25939,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13">
       <c r="A621" s="8">
         <v>45091</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13">
       <c r="A622" s="8">
         <v>45098</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13">
       <c r="A623" s="8">
         <v>45105</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13">
       <c r="A624" s="8">
         <v>45112</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13">
       <c r="A625" s="8">
         <v>45119</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13">
       <c r="A626" s="8">
         <v>45126</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13">
       <c r="A627" s="8">
         <v>45133</v>
       </c>
@@ -26226,7 +26226,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13">
       <c r="A628" s="8">
         <v>45140</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13">
       <c r="A629" s="8">
         <v>45147</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13">
       <c r="A630" s="8">
         <v>45154</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13">
       <c r="A631" s="8">
         <v>45161</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13">
       <c r="A632" s="8">
         <v>45168</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13">
       <c r="A633" s="8">
         <v>45175</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13">
       <c r="A634" s="8">
         <v>45182</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13">
       <c r="A635" s="8">
         <v>45189</v>
       </c>
@@ -26554,7 +26554,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13">
       <c r="A636" s="8">
         <v>45196</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13">
       <c r="A637" s="8">
         <v>45203</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13">
       <c r="A638" s="8">
         <v>45210</v>
       </c>
@@ -26677,7 +26677,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13">
       <c r="A639" s="8">
         <v>45217</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13">
       <c r="A640" s="8">
         <v>45224</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13">
       <c r="A641" s="8">
         <v>45231</v>
       </c>
@@ -26800,7 +26800,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13">
       <c r="A642" s="8">
         <v>45238</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13">
       <c r="A643" s="8">
         <v>45245</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13">
       <c r="A644" s="8">
         <v>45252</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13">
       <c r="A645" s="8">
         <v>45259</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13">
       <c r="A646" s="8">
         <v>45266</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13">
       <c r="A647" s="8">
         <v>45273</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13">
       <c r="A648" s="8">
         <v>45280</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13">
       <c r="A649" s="8">
         <v>45294</v>
       </c>
@@ -27128,7 +27128,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13">
       <c r="A650" s="8">
         <v>45301</v>
       </c>
@@ -27169,7 +27169,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13">
       <c r="A651" s="8">
         <v>45308</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13">
       <c r="A652" s="8">
         <v>45315</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13">
       <c r="A653" s="8">
         <v>45322</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13">
       <c r="A654" s="8">
         <v>45329</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13">
       <c r="A655" s="8">
         <v>45336</v>
       </c>
@@ -27374,7 +27374,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13">
       <c r="A656" s="8">
         <v>45343</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13">
       <c r="A657" s="8">
         <v>45350</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13">
       <c r="A658" s="8">
         <v>45357</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13">
       <c r="A659" s="8">
         <v>45364</v>
       </c>
@@ -27538,7 +27538,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13">
       <c r="A660" s="8">
         <v>45371</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13">
       <c r="A661" s="8">
         <v>45378</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13">
       <c r="A662" s="8">
         <v>45385</v>
       </c>
@@ -27661,7 +27661,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13">
       <c r="A663" s="8">
         <v>45392</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13">
       <c r="A664" s="8">
         <v>45399</v>
       </c>
@@ -27743,7 +27743,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13">
       <c r="A665" s="8">
         <v>45406</v>
       </c>
@@ -27784,7 +27784,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13">
       <c r="A666" s="8">
         <v>45413</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13">
       <c r="A667" s="8">
         <v>45420</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13">
       <c r="A668" s="8">
         <v>45427</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13">
       <c r="A669" s="8">
         <v>45434</v>
       </c>
@@ -27948,7 +27948,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:13">
       <c r="A670" s="8">
         <v>45441</v>
       </c>
@@ -27989,7 +27989,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:13">
       <c r="A671" s="8">
         <v>45448</v>
       </c>
@@ -28030,7 +28030,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13">
       <c r="A672" s="8">
         <v>45455</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13">
       <c r="A673" s="8">
         <v>45462</v>
       </c>
@@ -28112,7 +28112,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13">
       <c r="A674" s="8">
         <v>45469</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13">
       <c r="A675" s="8">
         <v>45476</v>
       </c>
@@ -28194,7 +28194,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13">
       <c r="A676" s="8">
         <v>45483</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:13">
       <c r="A677" s="8">
         <v>45490</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:13">
       <c r="A678" s="8">
         <v>45497</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13">
       <c r="A679" s="8">
         <v>45504</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13">
       <c r="A680" s="8">
         <v>45511</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13">
       <c r="A681" s="8">
         <v>45518</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13">
       <c r="A682" s="8">
         <v>45525</v>
       </c>
@@ -28481,7 +28481,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13">
       <c r="A683" s="8">
         <v>45532</v>
       </c>
@@ -28522,7 +28522,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13">
       <c r="A684" s="8">
         <v>45539</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13">
       <c r="A685" s="8">
         <v>45546</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13">
       <c r="A686" s="8">
         <v>45553</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13">
       <c r="A687" s="8">
         <v>45560</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:13">
       <c r="A688" s="8">
         <v>45567</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13">
       <c r="A689" s="8">
         <v>45574</v>
       </c>
@@ -28768,7 +28768,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:13">
       <c r="A690" s="8">
         <v>45581</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13">
       <c r="A691" s="8">
         <v>45588</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:13">
       <c r="A692" s="8">
         <v>45595</v>
       </c>
@@ -28891,7 +28891,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13">
       <c r="A693" s="8">
         <v>45602</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:13">
       <c r="A694" s="8">
         <v>45609</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:13">
       <c r="A695" s="8">
         <v>45616</v>
       </c>
@@ -29014,7 +29014,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13">
       <c r="A696" s="8">
         <v>45623</v>
       </c>
@@ -29055,7 +29055,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13">
       <c r="A697" s="8">
         <v>45630</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:13">
       <c r="A698" s="8">
         <v>45637</v>
       </c>
@@ -29137,7 +29137,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13">
       <c r="A699" s="8">
         <v>45644</v>
       </c>
@@ -29178,7 +29178,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:13">
       <c r="A700" s="8">
         <v>45658</v>
       </c>
@@ -29219,7 +29219,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13">
       <c r="A701" s="8">
         <v>45665</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:13">
       <c r="A702" s="8">
         <v>45672</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:13">
       <c r="A703" s="8">
         <v>45679</v>
       </c>
@@ -29342,7 +29342,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:13">
       <c r="A704" s="8">
         <v>45686</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:13">
       <c r="A705" s="8">
         <v>45693</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:13">
       <c r="A706" s="8">
         <v>45700</v>
       </c>
@@ -29465,7 +29465,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:13">
       <c r="A707" s="8">
         <v>45707</v>
       </c>
@@ -29506,7 +29506,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:13">
       <c r="A708" s="8">
         <v>45714</v>
       </c>
@@ -29547,7 +29547,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:13">
       <c r="A709" s="8">
         <v>45721</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:13">
       <c r="A710" s="8">
         <v>45728</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:13">
       <c r="A711" s="8">
         <v>45735</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:13">
       <c r="A712" s="8">
         <v>45742</v>
       </c>
@@ -29711,7 +29711,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:13">
       <c r="A713" s="8">
         <v>45749</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:13">
       <c r="A714" s="8">
         <v>45756</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:13">
       <c r="A715" s="8">
         <v>45763</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:13">
       <c r="A716" s="8">
         <v>45770</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:13">
       <c r="A717" s="8">
         <v>45777</v>
       </c>
@@ -29916,7 +29916,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:13">
       <c r="A718" s="8">
         <v>45784</v>
       </c>
@@ -29957,7 +29957,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13">
       <c r="A719" s="8">
         <v>45791</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:13">
       <c r="A720" s="8">
         <v>45798</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:13">
       <c r="A721" s="8">
         <v>45805</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:13">
       <c r="A722" s="8">
         <v>45812</v>
       </c>
@@ -30121,7 +30121,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:13">
       <c r="A723" s="8">
         <v>45819</v>
       </c>
@@ -30162,7 +30162,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:13">
       <c r="A724" s="8">
         <v>45826</v>
       </c>
@@ -30203,7 +30203,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:13">
       <c r="A725" s="8">
         <v>45833</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:13">
       <c r="A726" s="8">
         <v>45840</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:13">
       <c r="A727" s="8">
         <v>45847</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:13">
       <c r="A728" s="8">
         <v>45854</v>
       </c>
@@ -30367,7 +30367,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:13">
       <c r="A729" s="8">
         <v>45861</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:13">
       <c r="A730" s="8">
         <v>45868</v>
       </c>
@@ -30449,7 +30449,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:13">
       <c r="A731" s="8">
         <v>45875</v>
       </c>
@@ -30490,7 +30490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:13">
       <c r="A732" s="8">
         <v>45882</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:13">
       <c r="A733" s="8">
         <v>45889</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13">
       <c r="A734" s="8">
         <v>45896</v>
       </c>
@@ -30613,7 +30613,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:13">
       <c r="A735" s="8">
         <v>45903</v>
       </c>
@@ -30654,7 +30654,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:13">
       <c r="A736" s="8">
         <v>45910</v>
       </c>
@@ -30695,7 +30695,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:13">
       <c r="A737" s="8">
         <v>45917</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:13">
       <c r="A738" s="8">
         <v>45924</v>
       </c>
@@ -30777,7 +30777,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13">
       <c r="A739" s="8">
         <v>45931</v>
       </c>
@@ -30818,7 +30818,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:13">
       <c r="A740" s="8">
         <v>45938</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13">
       <c r="A741" s="8">
         <v>45945</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13">
       <c r="A742" s="8">
         <v>45952</v>
       </c>
@@ -30941,7 +30941,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13">
       <c r="A743" s="8">
         <v>45959</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:13">
       <c r="A744" s="8">
         <v>45966</v>
       </c>
@@ -31023,7 +31023,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13">
       <c r="A745" s="8">
         <v>45973</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:13">
       <c r="A746" s="8">
         <v>45980</v>
       </c>
@@ -31105,7 +31105,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13">
       <c r="A747" s="8">
         <v>45987</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:13">
       <c r="A748" s="8">
         <v>45994</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13">
       <c r="A749" s="8">
         <v>46001</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:13">
       <c r="A750" s="8">
         <v>46008</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13">
       <c r="A751" s="8">
         <v>46015</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:13">
       <c r="A752" s="8">
         <v>46022</v>
       </c>
@@ -31351,7 +31351,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:13">
       <c r="A753" s="8">
         <v>46029</v>
       </c>
@@ -31392,7 +31392,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:13">
       <c r="A754" s="8">
         <v>46036</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:13">
       <c r="A755" s="8">
         <v>46043</v>
       </c>
@@ -31472,6 +31472,47 @@
       </c>
       <c r="M755" s="11">
         <v>1570</v>
+      </c>
+    </row>
+    <row r="756" spans="1:13">
+      <c r="A756" s="8">
+        <v>46050</v>
+      </c>
+      <c r="B756" s="8">
+        <v>46051</v>
+      </c>
+      <c r="C756" s="9">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D756" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E756" s="10">
+        <v>2106.9699999999998</v>
+      </c>
+      <c r="F756" s="11">
+        <v>2379</v>
+      </c>
+      <c r="G756" s="11">
+        <v>3293</v>
+      </c>
+      <c r="H756" s="11">
+        <v>2442</v>
+      </c>
+      <c r="I756" s="11">
+        <v>2969</v>
+      </c>
+      <c r="J756" s="11">
+        <v>504</v>
+      </c>
+      <c r="K756" s="11">
+        <v>721</v>
+      </c>
+      <c r="L756" s="11">
+        <v>988</v>
+      </c>
+      <c r="M756" s="11">
+        <v>1605</v>
       </c>
     </row>
   </sheetData>
@@ -31489,12 +31530,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -31513,7 +31554,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/freight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889D766D-C9CA-7A46-82D2-616987F1FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D89AC6-E503-4689-AB17-9CB4724D3C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="2240" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WCI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="19">
   <si>
     <t>WCI Composite</t>
   </si>
@@ -98,29 +98,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -129,7 +129,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +143,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -193,35 +193,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,27 +499,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M756"/>
+  <dimension ref="A1:M757"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="H740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K753" sqref="K753"/>
+      <selection pane="bottomRight" activeCell="E758" sqref="E758"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="13" width="10.5" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="7.6640625" style="11"/>
+    <col min="14" max="16384" width="7.625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>40716</v>
       </c>
@@ -601,7 +601,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>40723</v>
       </c>
@@ -642,7 +642,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>40730</v>
       </c>
@@ -683,7 +683,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>40737</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2572.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>40744</v>
       </c>
@@ -765,7 +765,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>40751</v>
       </c>
@@ -806,7 +806,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>40758</v>
       </c>
@@ -847,7 +847,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>40765</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>40772</v>
       </c>
@@ -929,7 +929,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>40779</v>
       </c>
@@ -970,7 +970,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>40786</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>40793</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>40800</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>40807</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>40814</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>40821</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>40828</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>40835</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>40842</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>40849</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>40856</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>40863</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>40870</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>40877</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>40884</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>40891</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>40898</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>40905</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>40912</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>40919</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>40926</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>40933</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>40940</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>40947</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>40954</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>40961</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>40968</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>40975</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>40982</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40989</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40996</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41003</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>41010</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>41017</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>41024</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>41031</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>41038</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>41045</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>41052</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>41059</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>41066</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>41073</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>41080</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>41087</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>41094</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>41101</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>41108</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>41115</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>41122</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>41129</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>41136</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>41143</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>41150</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>41157</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>41164</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>41171</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>41178</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>41185</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>41192</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>41199</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>41206</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>41213</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>41220</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>41227</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>41234</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>41241</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>41248</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>41255</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>41262</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>41269</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>41276</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>41283</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>41290</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>41297</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>41304</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>41311</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>41318</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>41325</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>41332</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>41339</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>41346</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>41353</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>41360</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>41367</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>41374</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>41381</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>41388</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>41395</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>41402</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>41409</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>41416</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>41423</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>41430</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>41437</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>41444</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>41451</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>41458</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>41465</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>41472</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>41479</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>41486</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>41493</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>41500</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>41507</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>41514</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>41521</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>41528</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>41535</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>41542</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>41549</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>41556</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>41563</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>41570</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>41577</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>41584</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>41591</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>41598</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>41605</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>41612</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>41619</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>41626</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>41640</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>41647</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>41654</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>41661</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>41668</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>41675</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>41682</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>41689</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>41696</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>41703</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>41710</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>41717</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>41724</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>41731</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>41738</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>41745</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>41752</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>41759</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>41766</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>41773</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>41780</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>41787</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>41794</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>41801</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>41808</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>41815</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>41822</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>41829</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>41836</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>41843</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>41850</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>41857</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>41864</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>41871</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>41878</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>41885</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>41892</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>41899</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>41906</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>41913</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>41920</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>41927</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>41934</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>41941</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>41948</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>41955</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>41962</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>41969</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>41976</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>41983</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>41990</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>42011</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>42018</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>42025</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>42032</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>42039</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>42046</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>42053</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>42060</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>42067</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>42074</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>42081</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>42088</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>42095</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>42102</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>42109</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>42116</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>42123</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>42130</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>42137</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>42144</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>42151</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>42158</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>42165</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>42172</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>42179</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>42186</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>42193</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>42200</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>42207</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>42214</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>42221</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>42228</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>42235</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>42242</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>42249</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>42256</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>42263</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>42270</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>42277</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>42284</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>42291</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>42298</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>42305</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>42312</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>42319</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>42326</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>42333</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>42340</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>42347</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>42354</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>42361</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>42368</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>42375</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>42382</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>42389</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>42396</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>42403</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>42410</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>42417</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>42424</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>42431</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>42438</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>42445</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>42452</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>42459</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>42466</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>42473</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>42480</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>42487</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>42494</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>42501</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>42508</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>42515</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>42522</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>42529</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>42536</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>42543</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>42550</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>42557</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>42564</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>42571</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>42578</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>42585</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>42592</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>42599</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>42606</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>42613</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>42620</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>42627</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>42634</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>42641</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>42648</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>42655</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>42662</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>42669</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>42676</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>42683</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>42690</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>42697</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>42704</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>42711</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>42718</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>42725</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>42732</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>42739</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>42746</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>42753</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>42760</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>42767</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>42774</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>42781</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>42788</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>42795</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>42802</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>42809</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>42816</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>42823</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>42830</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>42837</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>42844</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>42851</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>42858</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>42865</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>42872</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>42879</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>42886</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>42893</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>42900</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>42907</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>42914</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>42921</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>42928</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>42935</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>42942</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>42949</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>42956</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>42963</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>42970</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>42977</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>42984</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>42991</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>42998</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>43005</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>43012</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>43019</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>43026</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>43033</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>43040</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>43047</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>43054</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>43061</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>43068</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>43075</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>43082</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>43089</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>43096</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>43103</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>43110</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>43117</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>43124</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>43131</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
         <v>43138</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
         <v>43145</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
         <v>43152</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
         <v>43159</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
         <v>43166</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
         <v>43173</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
         <v>43180</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
         <v>43187</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="8">
         <v>43194</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="8">
         <v>43201</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="8">
         <v>43208</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="8">
         <v>43215</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="8">
         <v>43222</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="8">
         <v>43229</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="8">
         <v>43236</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="8">
         <v>43243</v>
       </c>
@@ -15279,7 +15279,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="8">
         <v>43250</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="8">
         <v>43257</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="8">
         <v>43264</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="8">
         <v>43271</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="8">
         <v>43278</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="8">
         <v>43285</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="8">
         <v>43292</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="8">
         <v>43299</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="8">
         <v>43306</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="8">
         <v>43313</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="8">
         <v>43320</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="8">
         <v>43327</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="8">
         <v>43334</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="8">
         <v>43341</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="8">
         <v>43348</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="8">
         <v>43355</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="8">
         <v>43362</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="8">
         <v>43369</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="8">
         <v>43376</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="8">
         <v>43383</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="8">
         <v>43390</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="8">
         <v>43397</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="8">
         <v>43404</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="8">
         <v>43411</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="8">
         <v>43418</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="8">
         <v>43425</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="8">
         <v>43432</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="8">
         <v>43439</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="8">
         <v>43446</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="8">
         <v>43453</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
         <v>43460</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="8">
         <v>43467</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
         <v>43474</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="8">
         <v>43481</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="8">
         <v>43488</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="8">
         <v>43495</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="8">
         <v>43502</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="8">
         <v>43509</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="8">
         <v>43516</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="8">
         <v>43523</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="8">
         <v>43530</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="8">
         <v>43537</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="8">
         <v>43544</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="8">
         <v>43551</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="8">
         <v>43558</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="8">
         <v>43565</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="8">
         <v>43572</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="8">
         <v>43579</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="8">
         <v>43586</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="8">
         <v>43593</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="8">
         <v>43600</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="8">
         <v>43607</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="8">
         <v>43614</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="414" spans="1:13">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="8">
         <v>43621</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="8">
         <v>43628</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="8">
         <v>43635</v>
       </c>
@@ -17575,7 +17575,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="417" spans="1:13">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="8">
         <v>43642</v>
       </c>
@@ -17616,7 +17616,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="418" spans="1:13">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="8">
         <v>43649</v>
       </c>
@@ -17657,7 +17657,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="8">
         <v>43656</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="8">
         <v>43663</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="8">
         <v>43670</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="8">
         <v>43677</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" s="8">
         <v>43684</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="8">
         <v>43691</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" s="8">
         <v>43698</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="8">
         <v>43705</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="8">
         <v>43712</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="8">
         <v>43719</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="8">
         <v>43726</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="8">
         <v>43733</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="431" spans="1:13">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="8">
         <v>43740</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="8">
         <v>43747</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="8">
         <v>43754</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="8">
         <v>43761</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" s="8">
         <v>43768</v>
       </c>
@@ -18354,7 +18354,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="8">
         <v>43775</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" s="8">
         <v>43782</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="8">
         <v>43789</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="8">
         <v>43796</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="8">
         <v>43803</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="8">
         <v>43810</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="8">
         <v>43817</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="8">
         <v>43831</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="8">
         <v>43838</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" s="8">
         <v>43845</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="8">
         <v>43852</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" s="8">
         <v>43859</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" s="8">
         <v>43866</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="8">
         <v>43873</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="8">
         <v>43880</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" s="8">
         <v>43887</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" s="8">
         <v>43894</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" s="8">
         <v>43901</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="8">
         <v>43908</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" s="8">
         <v>43915</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" s="8">
         <v>43922</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" s="8">
         <v>43929</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="8">
         <v>43936</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" s="8">
         <v>43943</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" s="8">
         <v>43950</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" s="8">
         <v>43957</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" s="8">
         <v>43964</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" s="8">
         <v>43971</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="8">
         <v>43978</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" s="8">
         <v>43985</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" s="8">
         <v>43992</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" s="8">
         <v>43999</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" s="8">
         <v>44006</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" s="8">
         <v>44013</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" s="8">
         <v>44020</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" s="8">
         <v>44027</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" s="8">
         <v>44034</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" s="8">
         <v>44041</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="474" spans="1:13">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" s="8">
         <v>44048</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" s="8">
         <v>44055</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="476" spans="1:13">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" s="8">
         <v>44062</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="477" spans="1:13">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" s="8">
         <v>44069</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="478" spans="1:13">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" s="8">
         <v>44076</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="479" spans="1:13">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" s="8">
         <v>44083</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="480" spans="1:13">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" s="8">
         <v>44090</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="481" spans="1:13">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" s="8">
         <v>44097</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="482" spans="1:13">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" s="8">
         <v>44104</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="483" spans="1:13">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" s="8">
         <v>44111</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="484" spans="1:13">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" s="8">
         <v>44118</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="485" spans="1:13">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" s="8">
         <v>44125</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="486" spans="1:13">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" s="8">
         <v>44132</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="487" spans="1:13">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" s="8">
         <v>44139</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="488" spans="1:13">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" s="8">
         <v>44146</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="489" spans="1:13">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" s="8">
         <v>44153</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="490" spans="1:13">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" s="8">
         <v>44160</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="491" spans="1:13">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" s="8">
         <v>44167</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="492" spans="1:13">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" s="8">
         <v>44174</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="493" spans="1:13">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" s="8">
         <v>44181</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="494" spans="1:13">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" s="8">
         <v>44188</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="495" spans="1:13">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" s="8">
         <v>44195</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="496" spans="1:13">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" s="8">
         <v>44202</v>
       </c>
@@ -20855,7 +20855,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="497" spans="1:13">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" s="8">
         <v>44209</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="498" spans="1:13">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" s="8">
         <v>44216</v>
       </c>
@@ -20937,7 +20937,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="499" spans="1:13">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" s="8">
         <v>44223</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="500" spans="1:13">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" s="8">
         <v>44230</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="501" spans="1:13">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501" s="8">
         <v>44237</v>
       </c>
@@ -21060,7 +21060,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="502" spans="1:13">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" s="8">
         <v>44244</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="503" spans="1:13">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" s="8">
         <v>44251</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="504" spans="1:13">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" s="8">
         <v>44258</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="505" spans="1:13">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" s="8">
         <v>44265</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="506" spans="1:13">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" s="8">
         <v>44272</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="507" spans="1:13">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" s="8">
         <v>44279</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="508" spans="1:13">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" s="8">
         <v>44286</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" s="8">
         <v>44293</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="510" spans="1:13">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" s="8">
         <v>44300</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" s="8">
         <v>44307</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="512" spans="1:13">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" s="8">
         <v>44314</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="513" spans="1:13">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" s="8">
         <v>44321</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="514" spans="1:13">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" s="8">
         <v>44328</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="515" spans="1:13">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" s="8">
         <v>44335</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="516" spans="1:13">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" s="8">
         <v>44342</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="517" spans="1:13">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" s="8">
         <v>44349</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="518" spans="1:13">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" s="8">
         <v>44356</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>3988</v>
       </c>
     </row>
-    <row r="519" spans="1:13">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519" s="8">
         <v>44363</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="520" spans="1:13">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" s="8">
         <v>44370</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>4744</v>
       </c>
     </row>
-    <row r="521" spans="1:13">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" s="8">
         <v>44377</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="522" spans="1:13">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522" s="8">
         <v>44384</v>
       </c>
@@ -21921,7 +21921,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="523" spans="1:13">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" s="8">
         <v>44391</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524" s="8">
         <v>44398</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="525" spans="1:13">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" s="8">
         <v>44405</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="526" spans="1:13">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526" s="8">
         <v>44412</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>6417</v>
       </c>
     </row>
-    <row r="527" spans="1:13">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" s="8">
         <v>44419</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="528" spans="1:13">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528" s="8">
         <v>44426</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" s="8">
         <v>44433</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>6461</v>
       </c>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" s="8">
         <v>44440</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="531" spans="1:13">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" s="8">
         <v>44447</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row r="532" spans="1:13">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" s="8">
         <v>44454</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="533" spans="1:13">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" s="8">
         <v>44461</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>6179</v>
       </c>
     </row>
-    <row r="534" spans="1:13">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" s="8">
         <v>44468</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="535" spans="1:13">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" s="8">
         <v>44475</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>6209</v>
       </c>
     </row>
-    <row r="536" spans="1:13">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" s="8">
         <v>44482</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="537" spans="1:13">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" s="8">
         <v>44489</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="538" spans="1:13">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" s="8">
         <v>44496</v>
       </c>
@@ -22577,7 +22577,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="539" spans="1:13">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" s="8">
         <v>44503</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>6123</v>
       </c>
     </row>
-    <row r="540" spans="1:13">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" s="8">
         <v>44510</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>6255</v>
       </c>
     </row>
-    <row r="541" spans="1:13">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" s="8">
         <v>44517</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>6272</v>
       </c>
     </row>
-    <row r="542" spans="1:13">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" s="8">
         <v>44524</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="543" spans="1:13">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" s="8">
         <v>44531</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" s="8">
         <v>44538</v>
       </c>
@@ -22823,7 +22823,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" s="8">
         <v>44545</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>6272</v>
       </c>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" s="8">
         <v>44552</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>6290</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" s="8">
         <v>44566</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" s="8">
         <v>44573</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" s="8">
         <v>44580</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>6292</v>
       </c>
     </row>
-    <row r="550" spans="1:13">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" s="8">
         <v>44587</v>
       </c>
@@ -23069,7 +23069,7 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" s="8">
         <v>44594</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>6455</v>
       </c>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" s="8">
         <v>44601</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>6453</v>
       </c>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" s="8">
         <v>44608</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" s="8">
         <v>44615</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" s="8">
         <v>44622</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>6476</v>
       </c>
     </row>
-    <row r="556" spans="1:13">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" s="8">
         <v>44629</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>6494</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" s="8">
         <v>44636</v>
       </c>
@@ -23356,7 +23356,7 @@
         <v>6491</v>
       </c>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A558" s="8">
         <v>44643</v>
       </c>
@@ -23397,7 +23397,7 @@
         <v>6793</v>
       </c>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" s="8">
         <v>44650</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>6680</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" s="8">
         <v>44657</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>6903</v>
       </c>
     </row>
-    <row r="561" spans="1:13">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" s="8">
         <v>44664</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>6929</v>
       </c>
     </row>
-    <row r="562" spans="1:13">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" s="8">
         <v>44671</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>6934</v>
       </c>
     </row>
-    <row r="563" spans="1:13">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" s="8">
         <v>44678</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>6940</v>
       </c>
     </row>
-    <row r="564" spans="1:13">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" s="8">
         <v>44685</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>7212</v>
       </c>
     </row>
-    <row r="565" spans="1:13">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" s="8">
         <v>44692</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>7201</v>
       </c>
     </row>
-    <row r="566" spans="1:13">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A566" s="8">
         <v>44699</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>7189</v>
       </c>
     </row>
-    <row r="567" spans="1:13">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" s="8">
         <v>44706</v>
       </c>
@@ -23766,7 +23766,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="568" spans="1:13">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" s="8">
         <v>44713</v>
       </c>
@@ -23807,7 +23807,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="569" spans="1:13">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" s="8">
         <v>44720</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="570" spans="1:13">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A570" s="8">
         <v>44727</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>6938</v>
       </c>
     </row>
-    <row r="571" spans="1:13">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A571" s="8">
         <v>44734</v>
       </c>
@@ -23930,7 +23930,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="572" spans="1:13">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" s="8">
         <v>44741</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>6783</v>
       </c>
     </row>
-    <row r="573" spans="1:13">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" s="8">
         <v>44748</v>
       </c>
@@ -24012,7 +24012,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="574" spans="1:13">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A574" s="8">
         <v>44755</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>6929</v>
       </c>
     </row>
-    <row r="575" spans="1:13">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A575" s="8">
         <v>44762</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>6926</v>
       </c>
     </row>
-    <row r="576" spans="1:13">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A576" s="8">
         <v>44769</v>
       </c>
@@ -24135,7 +24135,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A577" s="8">
         <v>44776</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>6939</v>
       </c>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A578" s="8">
         <v>44783</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>6945</v>
       </c>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A579" s="8">
         <v>44790</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" s="8">
         <v>44797</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="581" spans="1:13">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" s="8">
         <v>44804</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="582" spans="1:13">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" s="8">
         <v>44811</v>
       </c>
@@ -24381,7 +24381,7 @@
         <v>6688</v>
       </c>
     </row>
-    <row r="583" spans="1:13">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" s="8">
         <v>44818</v>
       </c>
@@ -24422,7 +24422,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="584" spans="1:13">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A584" s="8">
         <v>44825</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="585" spans="1:13">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" s="8">
         <v>44832</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>7038</v>
       </c>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" s="8">
         <v>44839</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>7252</v>
       </c>
     </row>
-    <row r="587" spans="1:13">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A587" s="8">
         <v>44846</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>7295</v>
       </c>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" s="8">
         <v>44853</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>7264</v>
       </c>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" s="8">
         <v>44860</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>7284</v>
       </c>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A590" s="8">
         <v>44867</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" s="8">
         <v>44874</v>
       </c>
@@ -24750,7 +24750,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" s="8">
         <v>44881</v>
       </c>
@@ -24791,7 +24791,7 @@
         <v>7363</v>
       </c>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A593" s="8">
         <v>44888</v>
       </c>
@@ -24832,7 +24832,7 @@
         <v>7224</v>
       </c>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" s="8">
         <v>44895</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A595" s="8">
         <v>44902</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A596" s="8">
         <v>44909</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" s="8">
         <v>44916</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>6989</v>
       </c>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" s="8">
         <v>44930</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" s="8">
         <v>44937</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>6363</v>
       </c>
     </row>
-    <row r="600" spans="1:13">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A600" s="8">
         <v>44944</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>6296</v>
       </c>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A601" s="8">
         <v>44951</v>
       </c>
@@ -25160,7 +25160,7 @@
         <v>6322</v>
       </c>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A602" s="8">
         <v>44958</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A603" s="8">
         <v>44965</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A604" s="8">
         <v>44972</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A605" s="8">
         <v>44979</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>5640</v>
       </c>
     </row>
-    <row r="606" spans="1:13">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A606" s="8">
         <v>44986</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>5573</v>
       </c>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A607" s="8">
         <v>44993</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>5377</v>
       </c>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A608" s="8">
         <v>45000</v>
       </c>
@@ -25447,7 +25447,7 @@
         <v>5326</v>
       </c>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A609" s="8">
         <v>45007</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>5061</v>
       </c>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A610" s="8">
         <v>45014</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="611" spans="1:13">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A611" s="8">
         <v>45021</v>
       </c>
@@ -25570,7 +25570,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A612" s="8">
         <v>45028</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A613" s="8">
         <v>45035</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>4881</v>
       </c>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A614" s="8">
         <v>45042</v>
       </c>
@@ -25693,7 +25693,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A615" s="8">
         <v>45049</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>4783</v>
       </c>
     </row>
-    <row r="616" spans="1:13">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A616" s="8">
         <v>45056</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A617" s="8">
         <v>45063</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A618" s="8">
         <v>45070</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A619" s="8">
         <v>45077</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>3714</v>
       </c>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A620" s="8">
         <v>45084</v>
       </c>
@@ -25939,7 +25939,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A621" s="8">
         <v>45091</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A622" s="8">
         <v>45098</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A623" s="8">
         <v>45105</v>
       </c>
@@ -26062,7 +26062,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A624" s="8">
         <v>45112</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="625" spans="1:13">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A625" s="8">
         <v>45119</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="626" spans="1:13">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A626" s="8">
         <v>45126</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="627" spans="1:13">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A627" s="8">
         <v>45133</v>
       </c>
@@ -26226,7 +26226,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="628" spans="1:13">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A628" s="8">
         <v>45140</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="629" spans="1:13">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A629" s="8">
         <v>45147</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="630" spans="1:13">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A630" s="8">
         <v>45154</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="631" spans="1:13">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A631" s="8">
         <v>45161</v>
       </c>
@@ -26390,7 +26390,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="632" spans="1:13">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A632" s="8">
         <v>45168</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="633" spans="1:13">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A633" s="8">
         <v>45175</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="634" spans="1:13">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A634" s="8">
         <v>45182</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="635" spans="1:13">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A635" s="8">
         <v>45189</v>
       </c>
@@ -26554,7 +26554,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="636" spans="1:13">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A636" s="8">
         <v>45196</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="637" spans="1:13">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A637" s="8">
         <v>45203</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="638" spans="1:13">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A638" s="8">
         <v>45210</v>
       </c>
@@ -26677,7 +26677,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="639" spans="1:13">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A639" s="8">
         <v>45217</v>
       </c>
@@ -26718,7 +26718,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="640" spans="1:13">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A640" s="8">
         <v>45224</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="641" spans="1:13">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A641" s="8">
         <v>45231</v>
       </c>
@@ -26800,7 +26800,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="642" spans="1:13">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A642" s="8">
         <v>45238</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="643" spans="1:13">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A643" s="8">
         <v>45245</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="644" spans="1:13">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A644" s="8">
         <v>45252</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="645" spans="1:13">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A645" s="8">
         <v>45259</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="646" spans="1:13">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A646" s="8">
         <v>45266</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="647" spans="1:13">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A647" s="8">
         <v>45273</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="648" spans="1:13">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A648" s="8">
         <v>45280</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="649" spans="1:13">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A649" s="8">
         <v>45294</v>
       </c>
@@ -27128,7 +27128,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="650" spans="1:13">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A650" s="8">
         <v>45301</v>
       </c>
@@ -27169,7 +27169,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="651" spans="1:13">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A651" s="8">
         <v>45308</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="652" spans="1:13">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A652" s="8">
         <v>45315</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="653" spans="1:13">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A653" s="8">
         <v>45322</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="654" spans="1:13">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A654" s="8">
         <v>45329</v>
       </c>
@@ -27333,7 +27333,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="655" spans="1:13">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A655" s="8">
         <v>45336</v>
       </c>
@@ -27374,7 +27374,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="656" spans="1:13">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A656" s="8">
         <v>45343</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="657" spans="1:13">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A657" s="8">
         <v>45350</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="658" spans="1:13">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A658" s="8">
         <v>45357</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="659" spans="1:13">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A659" s="8">
         <v>45364</v>
       </c>
@@ -27538,7 +27538,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="660" spans="1:13">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A660" s="8">
         <v>45371</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="661" spans="1:13">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A661" s="8">
         <v>45378</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="662" spans="1:13">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A662" s="8">
         <v>45385</v>
       </c>
@@ -27661,7 +27661,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="663" spans="1:13">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A663" s="8">
         <v>45392</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="664" spans="1:13">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A664" s="8">
         <v>45399</v>
       </c>
@@ -27743,7 +27743,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="665" spans="1:13">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A665" s="8">
         <v>45406</v>
       </c>
@@ -27784,7 +27784,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="666" spans="1:13">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A666" s="8">
         <v>45413</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="667" spans="1:13">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A667" s="8">
         <v>45420</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="668" spans="1:13">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A668" s="8">
         <v>45427</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="669" spans="1:13">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A669" s="8">
         <v>45434</v>
       </c>
@@ -27948,7 +27948,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="670" spans="1:13">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A670" s="8">
         <v>45441</v>
       </c>
@@ -27989,7 +27989,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="671" spans="1:13">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A671" s="8">
         <v>45448</v>
       </c>
@@ -28030,7 +28030,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="672" spans="1:13">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A672" s="8">
         <v>45455</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="673" spans="1:13">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A673" s="8">
         <v>45462</v>
       </c>
@@ -28112,7 +28112,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="674" spans="1:13">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A674" s="8">
         <v>45469</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="675" spans="1:13">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A675" s="8">
         <v>45476</v>
       </c>
@@ -28194,7 +28194,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A676" s="8">
         <v>45483</v>
       </c>
@@ -28235,7 +28235,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="677" spans="1:13">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A677" s="8">
         <v>45490</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="678" spans="1:13">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A678" s="8">
         <v>45497</v>
       </c>
@@ -28317,7 +28317,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="679" spans="1:13">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A679" s="8">
         <v>45504</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="680" spans="1:13">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A680" s="8">
         <v>45511</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="681" spans="1:13">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A681" s="8">
         <v>45518</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="682" spans="1:13">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A682" s="8">
         <v>45525</v>
       </c>
@@ -28481,7 +28481,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="683" spans="1:13">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A683" s="8">
         <v>45532</v>
       </c>
@@ -28522,7 +28522,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="684" spans="1:13">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A684" s="8">
         <v>45539</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A685" s="8">
         <v>45546</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="686" spans="1:13">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A686" s="8">
         <v>45553</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="687" spans="1:13">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A687" s="8">
         <v>45560</v>
       </c>
@@ -28686,7 +28686,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="688" spans="1:13">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A688" s="8">
         <v>45567</v>
       </c>
@@ -28727,7 +28727,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="689" spans="1:13">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A689" s="8">
         <v>45574</v>
       </c>
@@ -28768,7 +28768,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="690" spans="1:13">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A690" s="8">
         <v>45581</v>
       </c>
@@ -28809,7 +28809,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="691" spans="1:13">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A691" s="8">
         <v>45588</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="692" spans="1:13">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A692" s="8">
         <v>45595</v>
       </c>
@@ -28891,7 +28891,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="693" spans="1:13">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A693" s="8">
         <v>45602</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="694" spans="1:13">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A694" s="8">
         <v>45609</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="695" spans="1:13">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A695" s="8">
         <v>45616</v>
       </c>
@@ -29014,7 +29014,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="696" spans="1:13">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A696" s="8">
         <v>45623</v>
       </c>
@@ -29055,7 +29055,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="697" spans="1:13">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A697" s="8">
         <v>45630</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="698" spans="1:13">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A698" s="8">
         <v>45637</v>
       </c>
@@ -29137,7 +29137,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="699" spans="1:13">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A699" s="8">
         <v>45644</v>
       </c>
@@ -29178,7 +29178,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="700" spans="1:13">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A700" s="8">
         <v>45658</v>
       </c>
@@ -29219,7 +29219,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="701" spans="1:13">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A701" s="8">
         <v>45665</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="702" spans="1:13">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A702" s="8">
         <v>45672</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="703" spans="1:13">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A703" s="8">
         <v>45679</v>
       </c>
@@ -29342,7 +29342,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="704" spans="1:13">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A704" s="8">
         <v>45686</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="705" spans="1:13">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A705" s="8">
         <v>45693</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="706" spans="1:13">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A706" s="8">
         <v>45700</v>
       </c>
@@ -29465,7 +29465,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="707" spans="1:13">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A707" s="8">
         <v>45707</v>
       </c>
@@ -29506,7 +29506,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="708" spans="1:13">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A708" s="8">
         <v>45714</v>
       </c>
@@ -29547,7 +29547,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="709" spans="1:13">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A709" s="8">
         <v>45721</v>
       </c>
@@ -29588,7 +29588,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="710" spans="1:13">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A710" s="8">
         <v>45728</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="711" spans="1:13">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A711" s="8">
         <v>45735</v>
       </c>
@@ -29670,7 +29670,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="712" spans="1:13">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A712" s="8">
         <v>45742</v>
       </c>
@@ -29711,7 +29711,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="713" spans="1:13">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A713" s="8">
         <v>45749</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="714" spans="1:13">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A714" s="8">
         <v>45756</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="715" spans="1:13">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A715" s="8">
         <v>45763</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="716" spans="1:13">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A716" s="8">
         <v>45770</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="717" spans="1:13">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A717" s="8">
         <v>45777</v>
       </c>
@@ -29916,7 +29916,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="718" spans="1:13">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A718" s="8">
         <v>45784</v>
       </c>
@@ -29957,7 +29957,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="719" spans="1:13">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A719" s="8">
         <v>45791</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="720" spans="1:13">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A720" s="8">
         <v>45798</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="721" spans="1:13">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A721" s="8">
         <v>45805</v>
       </c>
@@ -30080,7 +30080,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="722" spans="1:13">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A722" s="8">
         <v>45812</v>
       </c>
@@ -30121,7 +30121,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="723" spans="1:13">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A723" s="8">
         <v>45819</v>
       </c>
@@ -30162,7 +30162,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="724" spans="1:13">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A724" s="8">
         <v>45826</v>
       </c>
@@ -30203,7 +30203,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="725" spans="1:13">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A725" s="8">
         <v>45833</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="726" spans="1:13">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A726" s="8">
         <v>45840</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="727" spans="1:13">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A727" s="8">
         <v>45847</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="728" spans="1:13">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A728" s="8">
         <v>45854</v>
       </c>
@@ -30367,7 +30367,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="729" spans="1:13">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A729" s="8">
         <v>45861</v>
       </c>
@@ -30408,7 +30408,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="730" spans="1:13">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A730" s="8">
         <v>45868</v>
       </c>
@@ -30449,7 +30449,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="731" spans="1:13">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A731" s="8">
         <v>45875</v>
       </c>
@@ -30490,7 +30490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="732" spans="1:13">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A732" s="8">
         <v>45882</v>
       </c>
@@ -30531,7 +30531,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="733" spans="1:13">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A733" s="8">
         <v>45889</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="734" spans="1:13">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A734" s="8">
         <v>45896</v>
       </c>
@@ -30613,7 +30613,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="735" spans="1:13">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A735" s="8">
         <v>45903</v>
       </c>
@@ -30654,7 +30654,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="736" spans="1:13">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A736" s="8">
         <v>45910</v>
       </c>
@@ -30695,7 +30695,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="737" spans="1:13">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A737" s="8">
         <v>45917</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="738" spans="1:13">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A738" s="8">
         <v>45924</v>
       </c>
@@ -30777,7 +30777,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="739" spans="1:13">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A739" s="8">
         <v>45931</v>
       </c>
@@ -30818,7 +30818,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="740" spans="1:13">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A740" s="8">
         <v>45938</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="741" spans="1:13">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A741" s="8">
         <v>45945</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="742" spans="1:13">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A742" s="8">
         <v>45952</v>
       </c>
@@ -30941,7 +30941,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="743" spans="1:13">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A743" s="8">
         <v>45959</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="744" spans="1:13">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A744" s="8">
         <v>45966</v>
       </c>
@@ -31023,7 +31023,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="745" spans="1:13">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A745" s="8">
         <v>45973</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="746" spans="1:13">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A746" s="8">
         <v>45980</v>
       </c>
@@ -31105,7 +31105,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="747" spans="1:13">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A747" s="8">
         <v>45987</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="748" spans="1:13">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A748" s="8">
         <v>45994</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="749" spans="1:13">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A749" s="8">
         <v>46001</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="750" spans="1:13">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A750" s="8">
         <v>46008</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="751" spans="1:13">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A751" s="8">
         <v>46015</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="752" spans="1:13">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A752" s="8">
         <v>46022</v>
       </c>
@@ -31351,7 +31351,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="753" spans="1:13">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A753" s="8">
         <v>46029</v>
       </c>
@@ -31392,7 +31392,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="754" spans="1:13">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A754" s="8">
         <v>46036</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="755" spans="1:13">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A755" s="8">
         <v>46043</v>
       </c>
@@ -31474,7 +31474,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="756" spans="1:13">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A756" s="8">
         <v>46050</v>
       </c>
@@ -31513,6 +31513,20 @@
       </c>
       <c r="M756" s="11">
         <v>1605</v>
+      </c>
+    </row>
+    <row r="757" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A757" s="8">
+        <v>46057</v>
+      </c>
+      <c r="B757" s="8">
+        <v>46058</v>
+      </c>
+      <c r="C757" s="9">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D757" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -31530,12 +31544,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -31554,7 +31568,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D89AC6-E503-4689-AB17-9CB4724D3C6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4215BF-A97E-4DDA-9AB2-653F4C83B499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,10 +502,10 @@
   <dimension ref="A1:M757"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="H740" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E758" sqref="E758"/>
+      <selection pane="bottomRight" activeCell="M764" sqref="M764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31527,6 +31527,33 @@
       </c>
       <c r="D757" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="E757" s="10">
+        <v>1958.63</v>
+      </c>
+      <c r="F757" s="11">
+        <v>2164</v>
+      </c>
+      <c r="G757" s="11">
+        <v>3048</v>
+      </c>
+      <c r="H757" s="11">
+        <v>2239</v>
+      </c>
+      <c r="I757" s="11">
+        <v>2819</v>
+      </c>
+      <c r="J757" s="11">
+        <v>516</v>
+      </c>
+      <c r="K757" s="11">
+        <v>725</v>
+      </c>
+      <c r="L757" s="11">
+        <v>946</v>
+      </c>
+      <c r="M757" s="11">
+        <v>1598</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4215BF-A97E-4DDA-9AB2-653F4C83B499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2D412F-9CA3-4841-8FED-BF5A0230DEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="19">
   <si>
     <t>WCI Composite</t>
   </si>
@@ -499,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M757"/>
+  <dimension ref="A1:M758"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M764" sqref="M764"/>
+      <selection pane="bottomRight" activeCell="E758" sqref="E758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31554,6 +31554,20 @@
       </c>
       <c r="M757" s="11">
         <v>1598</v>
+      </c>
+    </row>
+    <row r="758" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A758" s="8">
+        <v>46064</v>
+      </c>
+      <c r="B758" s="8">
+        <v>46065</v>
+      </c>
+      <c r="C758" s="9">
+        <v>0.58333333333333204</v>
+      </c>
+      <c r="D758" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2D412F-9CA3-4841-8FED-BF5A0230DEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052BFAA-F3F4-4E91-A505-4ED13EC09259}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E758" sqref="E758"/>
+      <selection pane="bottomRight" activeCell="N758" sqref="N758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31569,6 +31569,33 @@
       <c r="D758" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="E758" s="10">
+        <v>1932.58</v>
+      </c>
+      <c r="F758" s="11">
+        <v>2127</v>
+      </c>
+      <c r="G758" s="11">
+        <v>2965</v>
+      </c>
+      <c r="H758" s="11">
+        <v>2214</v>
+      </c>
+      <c r="I758" s="11">
+        <v>2800</v>
+      </c>
+      <c r="J758" s="11">
+        <v>525</v>
+      </c>
+      <c r="K758" s="11">
+        <v>726</v>
+      </c>
+      <c r="L758" s="11">
+        <v>966</v>
+      </c>
+      <c r="M758" s="11">
+        <v>1616</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31582,7 +31609,7 @@
   <dimension ref="B2:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31634,6 +31661,6 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2661C6AA-C930-4A3C-90DD-F0E5CC18183F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052BFAA-F3F4-4E91-A505-4ED13EC09259}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CFBD2-2890-4068-90AE-EB2ECF33AB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="19">
   <si>
     <t>WCI Composite</t>
   </si>
@@ -499,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M758"/>
+  <dimension ref="A1:M759"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N758" sqref="N758"/>
+      <selection pane="bottomRight" activeCell="F761" sqref="F761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31595,6 +31595,20 @@
       </c>
       <c r="M758" s="11">
         <v>1616</v>
+      </c>
+    </row>
+    <row r="759" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A759" s="8">
+        <v>46071</v>
+      </c>
+      <c r="B759" s="8">
+        <v>46072</v>
+      </c>
+      <c r="C759" s="9">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D759" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CFBD2-2890-4068-90AE-EB2ECF33AB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59ACFE-5243-49A2-A507-07709E0E5E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F761" sqref="F761"/>
+      <selection pane="bottomRight" activeCell="Q762" sqref="Q762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31610,11 +31610,38 @@
       <c r="D759" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="E759" s="10">
+        <v>1919</v>
+      </c>
+      <c r="F759" s="11">
+        <v>2109</v>
+      </c>
+      <c r="G759" s="11">
+        <v>2895</v>
+      </c>
+      <c r="H759" s="11">
+        <v>2219</v>
+      </c>
+      <c r="I759" s="11">
+        <v>2782</v>
+      </c>
+      <c r="J759" s="11">
+        <v>536</v>
+      </c>
+      <c r="K759" s="11">
+        <v>724</v>
+      </c>
+      <c r="L759" s="11">
+        <v>957</v>
+      </c>
+      <c r="M759" s="11">
+        <v>1612</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31623,7 +31650,7 @@
   <dimension ref="B2:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/freight/world container index.xlsx
+++ b/data/freight/world container index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\freight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59ACFE-5243-49A2-A507-07709E0E5E1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AA1BE-A813-4995-AEA0-947DB41CF37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="2235" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="19">
   <si>
     <t>WCI Composite</t>
   </si>
@@ -499,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M759"/>
+  <dimension ref="A1:M760"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G740" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q762" sqref="Q762"/>
+      <selection pane="bottomRight" activeCell="E760" sqref="E760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -31636,6 +31636,20 @@
       </c>
       <c r="M759" s="11">
         <v>1612</v>
+      </c>
+    </row>
+    <row r="760" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A760" s="8">
+        <v>46078</v>
+      </c>
+      <c r="B760" s="8">
+        <v>46079</v>
+      </c>
+      <c r="C760" s="9">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D760" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
